--- a/outputs/Lib_3.xlsx
+++ b/outputs/Lib_3.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\2º Semestre\Simulação\SO_trabalho\outputs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423DAB7-0A49-48AB-AFD5-1CA979B6AAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lib_3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -152,13 +171,16 @@
   </si>
   <si>
     <t>p36</t>
+  </si>
+  <si>
+    <t>Z-Z*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,11 +217,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -241,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,14 +548,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="6" width="8.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,13 +574,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -526,10 +600,14 @@
         <v>0</v>
       </c>
       <c r="F2">
+        <f>(E2/C2)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -546,10 +624,14 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F37" si="0">(E3/C3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -563,13 +645,17 @@
         <v>1014099.6125</v>
       </c>
       <c r="E4">
-        <v>0.002500000060535967</v>
+        <v>2.5000000605359669E-3</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.465241122157583E-7</v>
+      </c>
+      <c r="G4">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -583,13 +669,17 @@
         <v>1053197.4375</v>
       </c>
       <c r="E5">
-        <v>0.002499999711290002</v>
+        <v>2.4999997112900019E-3</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.3737236878300824E-7</v>
+      </c>
+      <c r="G5">
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -606,10 +696,14 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -626,10 +720,14 @@
         <v>0</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -646,10 +744,14 @@
         <v>1.164153218269348E-10</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.1518953811654451E-14</v>
+      </c>
+      <c r="G8">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -663,13 +765,17 @@
         <v>1034976.975</v>
       </c>
       <c r="E9">
-        <v>0.005000000121071935</v>
+        <v>5.0000001210719347E-3</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.8310254875255194E-7</v>
+      </c>
+      <c r="G9">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -677,19 +783,23 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>796648.4399999999</v>
+        <v>796648.44</v>
       </c>
       <c r="D10">
         <v>796648.4375</v>
       </c>
       <c r="E10">
-        <v>0.002499999944120646</v>
+        <v>2.499999944120646E-3</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3.1381470402686613E-7</v>
+      </c>
+      <c r="G10">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -697,19 +807,23 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>858109.3199999999</v>
+        <v>858109.32</v>
       </c>
       <c r="D11">
-        <v>858158.8249999998</v>
+        <v>858158.82499999984</v>
       </c>
       <c r="E11">
-        <v>49.50499999988824</v>
+        <v>49.504999999888241</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.7690784665860809E-3</v>
+      </c>
+      <c r="G11">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -720,16 +834,20 @@
         <v>900760.11</v>
       </c>
       <c r="D12">
-        <v>900760.1125</v>
+        <v>900760.11250000005</v>
       </c>
       <c r="E12">
-        <v>0.002500000060535967</v>
+        <v>2.5000000605359669E-3</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.7754338061617392E-7</v>
+      </c>
+      <c r="G12">
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -740,16 +858,20 @@
         <v>950608.42</v>
       </c>
       <c r="D13">
-        <v>950608.425</v>
+        <v>950608.42500000005</v>
       </c>
       <c r="E13">
-        <v>0.005000000004656613</v>
+        <v>5.0000000046566129E-3</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5.2597893091001793E-7</v>
+      </c>
+      <c r="G13">
         <v>1239</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -757,19 +879,23 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>796648.4399999999</v>
+        <v>796648.44</v>
       </c>
       <c r="D14">
         <v>796648.4375</v>
       </c>
       <c r="E14">
-        <v>0.002499999944120646</v>
+        <v>2.499999944120646E-3</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3.1381470402686613E-7</v>
+      </c>
+      <c r="G14">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -780,16 +906,20 @@
         <v>854704.2</v>
       </c>
       <c r="D15">
-        <v>854704.2000000001</v>
+        <v>854704.20000000007</v>
       </c>
       <c r="E15">
         <v>1.164153218269348E-10</v>
       </c>
       <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.3620539342960384E-14</v>
+      </c>
+      <c r="G15">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -800,16 +930,20 @@
         <v>893782.11</v>
       </c>
       <c r="D16">
-        <v>893782.1125</v>
+        <v>893782.11250000005</v>
       </c>
       <c r="E16">
-        <v>0.002500000060535967</v>
+        <v>2.5000000605359669E-3</v>
       </c>
       <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2.7971023726755586E-7</v>
+      </c>
+      <c r="G16">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -826,10 +960,14 @@
         <v>0</v>
       </c>
       <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -837,19 +975,23 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>793439.5600000001</v>
+        <v>793439.56</v>
       </c>
       <c r="D18">
         <v>793439.5625</v>
       </c>
       <c r="E18">
-        <v>0.002499999944120646</v>
+        <v>2.499999944120646E-3</v>
       </c>
       <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3.1508385391328933E-7</v>
+      </c>
+      <c r="G18">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -860,16 +1002,20 @@
         <v>854900.45</v>
       </c>
       <c r="D19">
-        <v>854900.4500000001</v>
+        <v>854900.45000000007</v>
       </c>
       <c r="E19">
         <v>1.164153218269348E-10</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.3617412627041522E-14</v>
+      </c>
+      <c r="G19">
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -880,16 +1026,20 @@
         <v>898266.08</v>
       </c>
       <c r="D20">
-        <v>898266.0750000001</v>
+        <v>898266.07500000007</v>
       </c>
       <c r="E20">
-        <v>0.004999999888241291</v>
+        <v>4.999999888241291E-3</v>
       </c>
       <c r="F20">
+        <f t="shared" si="0"/>
+        <v>5.5662793013861671E-7</v>
+      </c>
+      <c r="G20">
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -897,19 +1047,23 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>950608.4300000001</v>
+        <v>950608.43</v>
       </c>
       <c r="D21">
-        <v>950608.425</v>
+        <v>950608.42500000005</v>
       </c>
       <c r="E21">
-        <v>0.005000000004656613</v>
+        <v>5.0000000046566129E-3</v>
       </c>
       <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5.2597892537694122E-7</v>
+      </c>
+      <c r="G21">
         <v>1077</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -917,19 +1071,23 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>793439.5600000001</v>
+        <v>793439.56</v>
       </c>
       <c r="D22">
         <v>793439.5625</v>
       </c>
       <c r="E22">
-        <v>0.002499999944120646</v>
+        <v>2.499999944120646E-3</v>
       </c>
       <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3.1508385391328933E-7</v>
+      </c>
+      <c r="G22">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -937,19 +1095,23 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>851495.3199999999</v>
+        <v>851495.32</v>
       </c>
       <c r="D23">
-        <v>851495.3250000001</v>
+        <v>851495.32500000007</v>
       </c>
       <c r="E23">
-        <v>0.005000000121071935</v>
+        <v>5.0000001210719347E-3</v>
       </c>
       <c r="F23">
+        <f t="shared" si="0"/>
+        <v>5.8720230207159975E-7</v>
+      </c>
+      <c r="G23">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -960,16 +1122,20 @@
         <v>893076.71</v>
       </c>
       <c r="D24">
-        <v>893076.7125</v>
+        <v>893076.71250000002</v>
       </c>
       <c r="E24">
-        <v>0.002500000060535967</v>
+        <v>2.5000000605359669E-3</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2.7993116745099834E-7</v>
+      </c>
+      <c r="G24">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -986,10 +1152,14 @@
         <v>0</v>
       </c>
       <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1000,16 +1170,20 @@
         <v>19241056.93</v>
       </c>
       <c r="D26">
-        <v>24087455.69779</v>
+        <v>24087455.697790001</v>
       </c>
       <c r="E26">
-        <v>4846398.767790001</v>
+        <v>4846398.7677900009</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
+        <v>25.187799118424003</v>
+      </c>
+      <c r="G26">
         <v>1201474</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1017,19 +1191,23 @@
         <v>34</v>
       </c>
       <c r="C27">
-        <v>18438329.78</v>
+        <v>18438329.780000001</v>
       </c>
       <c r="D27">
-        <v>22387298.57921</v>
+        <v>22387298.579209998</v>
       </c>
       <c r="E27">
-        <v>3948968.799210001</v>
+        <v>3948968.7992100008</v>
       </c>
       <c r="F27">
+        <f t="shared" si="0"/>
+        <v>21.417171979934079</v>
+      </c>
+      <c r="G27">
         <v>1358354</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1037,19 +1215,23 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>17765201.95</v>
+        <v>17765201.949999999</v>
       </c>
       <c r="D28">
-        <v>21691404.40105</v>
+        <v>21691404.401050001</v>
       </c>
       <c r="E28">
-        <v>3926202.451050002</v>
+        <v>3926202.4510500021</v>
       </c>
       <c r="F28">
+        <f t="shared" si="0"/>
+        <v>22.100522482661685</v>
+      </c>
+      <c r="G28">
         <v>1200884</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1060,16 +1242,20 @@
         <v>17160612.23</v>
       </c>
       <c r="D29">
-        <v>23480262.55281</v>
+        <v>23480262.552809998</v>
       </c>
       <c r="E29">
-        <v>6319650.322809998</v>
+        <v>6319650.3228099979</v>
       </c>
       <c r="F29">
+        <f t="shared" si="0"/>
+        <v>36.826485198249813</v>
+      </c>
+      <c r="G29">
         <v>1202506</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1083,13 +1269,17 @@
         <v>17177245.05751</v>
       </c>
       <c r="E30">
-        <v>3519780.827509999</v>
+        <v>3519780.8275099988</v>
       </c>
       <c r="F30">
+        <f t="shared" si="0"/>
+        <v>25.771847308070882</v>
+      </c>
+      <c r="G30">
         <v>1202619</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1100,16 +1290,20 @@
         <v>13362529.34</v>
       </c>
       <c r="D31">
-        <v>24812870.71168</v>
+        <v>24812870.711679999</v>
       </c>
       <c r="E31">
-        <v>11450341.37168</v>
+        <v>11450341.371680001</v>
       </c>
       <c r="F31">
+        <f t="shared" si="0"/>
+        <v>85.689925015947622</v>
+      </c>
+      <c r="G31">
         <v>5305735</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1117,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>13199213.19</v>
+        <v>13199213.189999999</v>
       </c>
       <c r="D32">
         <v>16148228.72711</v>
@@ -1126,10 +1320,14 @@
         <v>2949015.537109999</v>
       </c>
       <c r="F32">
+        <f t="shared" si="0"/>
+        <v>22.342358553191904</v>
+      </c>
+      <c r="G32">
         <v>1202717</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1140,16 +1338,20 @@
         <v>13083203.74</v>
       </c>
       <c r="D33">
-        <v>17440075.60043</v>
+        <v>17440075.600430001</v>
       </c>
       <c r="E33">
-        <v>4356871.860429997</v>
+        <v>4356871.8604299966</v>
       </c>
       <c r="F33">
+        <f t="shared" si="0"/>
+        <v>33.301261273716101</v>
+      </c>
+      <c r="G33">
         <v>1203377</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1163,13 +1365,17 @@
         <v>15970915.30986</v>
       </c>
       <c r="E34">
-        <v>4323504.80986</v>
+        <v>4323504.8098600004</v>
       </c>
       <c r="F34">
+        <f t="shared" si="0"/>
+        <v>37.119880078580557</v>
+      </c>
+      <c r="G34">
         <v>1201905</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1180,16 +1386,20 @@
         <v>11570437.68</v>
       </c>
       <c r="D35">
-        <v>15448792.33617</v>
+        <v>15448792.336169999</v>
       </c>
       <c r="E35">
-        <v>3878354.656170001</v>
+        <v>3878354.6561700008</v>
       </c>
       <c r="F35">
+        <f t="shared" si="0"/>
+        <v>33.519515539795904</v>
+      </c>
+      <c r="G35">
         <v>1205123</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1197,19 +1407,23 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>11519169.78</v>
+        <v>11519169.779999999</v>
       </c>
       <c r="D36">
-        <v>14986880.33283</v>
+        <v>14986880.332830001</v>
       </c>
       <c r="E36">
-        <v>3467710.552830001</v>
+        <v>3467710.5528300009</v>
       </c>
       <c r="F36">
+        <f t="shared" si="0"/>
+        <v>30.103823618007315</v>
+      </c>
+      <c r="G36">
         <v>1206215</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1217,15 +1431,19 @@
         <v>34</v>
       </c>
       <c r="C37">
-        <v>11505861.86</v>
+        <v>11505861.859999999</v>
       </c>
       <c r="D37">
-        <v>13807396.59913</v>
+        <v>13807396.599130001</v>
       </c>
       <c r="E37">
-        <v>2301534.73913</v>
+        <v>2301534.7391300001</v>
       </c>
       <c r="F37">
+        <f t="shared" si="0"/>
+        <v>20.003149413180946</v>
+      </c>
+      <c r="G37">
         <v>1203678</v>
       </c>
     </row>

--- a/outputs/Lib_3.xlsx
+++ b/outputs/Lib_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidade\2º Semestre\Simulação\SO_trabalho\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F423DAB7-0A49-48AB-AFD5-1CA979B6AAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F745B930-4E29-4357-9B2A-BD18023320AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,8 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,13 +552,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="6" width="8.7265625" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -576,7 +578,7 @@
       <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
@@ -599,7 +601,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>(E2/C2)*100</f>
         <v>0</v>
       </c>
@@ -623,7 +625,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F37" si="0">(E3/C3)*100</f>
         <v>0</v>
       </c>
@@ -647,7 +649,7 @@
       <c r="E4">
         <v>2.5000000605359669E-3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>2.465241122157583E-7</v>
       </c>
@@ -671,7 +673,7 @@
       <c r="E5">
         <v>2.4999997112900019E-3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>2.3737236878300824E-7</v>
       </c>
@@ -695,7 +697,7 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -719,7 +721,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -743,7 +745,7 @@
       <c r="E8">
         <v>1.164153218269348E-10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>1.1518953811654451E-14</v>
       </c>
@@ -767,7 +769,7 @@
       <c r="E9">
         <v>5.0000001210719347E-3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>4.8310254875255194E-7</v>
       </c>
@@ -791,7 +793,7 @@
       <c r="E10">
         <v>2.499999944120646E-3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>3.1381470402686613E-7</v>
       </c>
@@ -815,7 +817,7 @@
       <c r="E11">
         <v>49.504999999888241</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>5.7690784665860809E-3</v>
       </c>
@@ -839,7 +841,7 @@
       <c r="E12">
         <v>2.5000000605359669E-3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>2.7754338061617392E-7</v>
       </c>
@@ -863,7 +865,7 @@
       <c r="E13">
         <v>5.0000000046566129E-3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>5.2597893091001793E-7</v>
       </c>
@@ -887,7 +889,7 @@
       <c r="E14">
         <v>2.499999944120646E-3</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>3.1381470402686613E-7</v>
       </c>
@@ -911,7 +913,7 @@
       <c r="E15">
         <v>1.164153218269348E-10</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>1.3620539342960384E-14</v>
       </c>
@@ -935,7 +937,7 @@
       <c r="E16">
         <v>2.5000000605359669E-3</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>2.7971023726755586E-7</v>
       </c>
@@ -959,7 +961,7 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -983,7 +985,7 @@
       <c r="E18">
         <v>2.499999944120646E-3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>3.1508385391328933E-7</v>
       </c>
@@ -1007,7 +1009,7 @@
       <c r="E19">
         <v>1.164153218269348E-10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>1.3617412627041522E-14</v>
       </c>
@@ -1031,7 +1033,7 @@
       <c r="E20">
         <v>4.999999888241291E-3</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>5.5662793013861671E-7</v>
       </c>
@@ -1055,7 +1057,7 @@
       <c r="E21">
         <v>5.0000000046566129E-3</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>5.2597892537694122E-7</v>
       </c>
@@ -1079,7 +1081,7 @@
       <c r="E22">
         <v>2.499999944120646E-3</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>3.1508385391328933E-7</v>
       </c>
@@ -1103,7 +1105,7 @@
       <c r="E23">
         <v>5.0000001210719347E-3</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>5.8720230207159975E-7</v>
       </c>
@@ -1127,7 +1129,7 @@
       <c r="E24">
         <v>2.5000000605359669E-3</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>2.7993116745099834E-7</v>
       </c>
@@ -1151,7 +1153,7 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1175,7 +1177,7 @@
       <c r="E26">
         <v>4846398.7677900009</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
         <v>25.187799118424003</v>
       </c>
@@ -1199,7 +1201,7 @@
       <c r="E27">
         <v>3948968.7992100008</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <f t="shared" si="0"/>
         <v>21.417171979934079</v>
       </c>
@@ -1223,7 +1225,7 @@
       <c r="E28">
         <v>3926202.4510500021</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <f t="shared" si="0"/>
         <v>22.100522482661685</v>
       </c>
@@ -1247,7 +1249,7 @@
       <c r="E29">
         <v>6319650.3228099979</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
         <v>36.826485198249813</v>
       </c>
@@ -1271,7 +1273,7 @@
       <c r="E30">
         <v>3519780.8275099988</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
         <v>25.771847308070882</v>
       </c>
@@ -1295,7 +1297,7 @@
       <c r="E31">
         <v>11450341.371680001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>85.689925015947622</v>
       </c>
@@ -1319,7 +1321,7 @@
       <c r="E32">
         <v>2949015.537109999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>22.342358553191904</v>
       </c>
@@ -1343,7 +1345,7 @@
       <c r="E33">
         <v>4356871.8604299966</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <f t="shared" si="0"/>
         <v>33.301261273716101</v>
       </c>
@@ -1367,7 +1369,7 @@
       <c r="E34">
         <v>4323504.8098600004</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <f t="shared" si="0"/>
         <v>37.119880078580557</v>
       </c>
@@ -1391,7 +1393,7 @@
       <c r="E35">
         <v>3878354.6561700008</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <f t="shared" si="0"/>
         <v>33.519515539795904</v>
       </c>
@@ -1415,7 +1417,7 @@
       <c r="E36">
         <v>3467710.5528300009</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <f t="shared" si="0"/>
         <v>30.103823618007315</v>
       </c>
@@ -1439,7 +1441,7 @@
       <c r="E37">
         <v>2301534.7391300001</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <f t="shared" si="0"/>
         <v>20.003149413180946</v>
       </c>
